--- a/能源文献/能源论文相关研究.xlsx
+++ b/能源文献/能源论文相关研究.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3ECA13-3A8E-4BDF-966D-D506BF17FDDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="153">
   <si>
     <t>开始年限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,127 +389,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>33篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep learning versus traditional machine learning methods for aggregated energy demand prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较深度学习与机器学习常用方法在能源预测的表现优劣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep learning,并与支持向量机、高斯过程、回归树、集成增强和线性回归等最常用的机器学习方法进行了性能比较。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Load Forecasting Using Deep Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭用电短期预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于GRU(门控递归单元)的递归深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Load Forecasting using Deep Learning Approach-LSTM and GRU in Spark Cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电网负荷预测短期预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRU和LSTM的结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly energy consumption forecast: A deep learning approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度能耗预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度全连接，卷积和长短期记忆神经网络。由于这些模型对输入范围的敏感性，还研究了归一化技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forecasting Building Energy Consumption with Deep Learning: A Sequence to Sequence Approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑能耗时间序列的预测方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于门控递归单元(GRU)的S2S模型和基于长短时记忆(LSTM)的S2S模型，结果表明，在短期、中期和长期预测长度方面，GRU S2S模型平均优于LSTM S2S、RNN S2S和Deep Neural Network模型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect of automatic hyperparameter tuning for residential load forecasting via deep learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅负荷预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM,参数优化，将基于树结构的Parzen估计量的超参数整定方法集成到STLF框架中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电网负荷预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN,LSTM,SVR,..将CNN获得的结果与相同数据集的长短时记忆LSTM序列-序列(LSTM S2S)、限制因子玻尔兹曼机(FCRBM)、“浅层”人工神经网络(ANN)和支持向量机(SVM)的结果进行了比较。实验结果表明，在与人工神经网络和深度学习方法产生相似结果的同时，CNN的学习效果优于SVR。需要进一步的测试来比较不同深度学习架构在负荷预测中的性能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Anomaly Detection with Forecasting and Deep Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源功率异常检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning Based Forecasting of Individual Residential Loads Using Recurrence Plots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building Deep Neural Network Model for Short Term Electricity Consumption Forecasting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期用电量预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstm和ffnn（前馈神经网络）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>deep learning energy consumption forecast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>33篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deep learning versus traditional machine learning methods for aggregated energy demand prediction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较深度学习与机器学习常用方法在能源预测的表现优劣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deep learning,并与支持向量机、高斯过程、回归树、集成增强和线性回归等最常用的机器学习方法进行了性能比较。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Load Forecasting Using Deep Learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭用电短期预测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于GRU(门控递归单元)的递归深度学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Load Forecasting using Deep Learning Approach-LSTM and GRU in Spark Cluster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电网负荷预测短期预测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRU和LSTM的结合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monthly energy consumption forecast: A deep learning approach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月度能耗预测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深度全连接，卷积和长短期记忆神经网络。由于这些模型对输入范围的敏感性，还研究了归一化技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forecasting Building Energy Consumption with Deep Learning: A Sequence to Sequence Approach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑能耗时间序列的预测方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于门控递归单元(GRU)的S2S模型和基于长短时记忆(LSTM)的S2S模型，结果表明，在短期、中期和长期预测长度方面，GRU S2S模型平均优于LSTM S2S、RNN S2S和Deep Neural Network模型。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect of automatic hyperparameter tuning for residential load forecasting via deep learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅负荷预测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSTM,参数优化，将基于树结构的Parzen估计量的超参数整定方法集成到STLF框架中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电网负荷预测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNN,LSTM,SVR,..将CNN获得的结果与相同数据集的长短时记忆LSTM序列-序列(LSTM S2S)、限制因子玻尔兹曼机(FCRBM)、“浅层”人工神经网络(ANN)和支持向量机(SVM)的结果进行了比较。实验结果表明，在与人工神经网络和深度学习方法产生相似结果的同时，CNN的学习效果优于SVR。需要进一步的测试来比较不同深度学习架构在负荷预测中的性能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Anomaly Detection with Forecasting and Deep Learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源功率异常检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deep Learning Based Forecasting of Individual Residential Loads Using Recurrence Plots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Building Deep Neural Network Model for Short Term Electricity Consumption Forecasting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期用电量预测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lstm和ffnn（前馈神经网络）</t>
+    <t>Building energy load forecasting using Deep Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑能源负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准lstm和基于lstm的序列到序列体系结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy load forecast using S2S deep neural networks with k-Shape clustering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量负荷预测，时间序列预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即基于序列到序列(S2S)结构的长短时记忆(LSTM)算法。通过使用k形聚类算法创建更容易预测的用户组，提高了预测网络总负载的准确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data forecasting for Optimized Urban Microgrid Energy Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市微电网能源管理的数据预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Consumption Prediction with Big Data: Balancing Prediction Accuracy and Computational Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据能源消耗预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于支持向量回归的局部学习方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning Techniques for Load Forecasting in Large Commercial Buildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即通过长期短期记忆层实现的递归神经网络，用于负荷预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型商业建筑中用于负荷预测的深度学习技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appliance-level Short-Term Load Forecasting using Deep Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用级短期负荷预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度神经网络（DNN）在短期设备级功率分析和预测中的适用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short term power load forecasting using Deep Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度神经网络进行短期电力负荷预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前馈深度神经网络(FF-DNN)和递归深度神经网络(R-DNN)模型的适用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Particle Swarm Optimization-based CNN-LSTM Networks for Forecasting Energy Consumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将粒子群优化（PSO）集成到CNN-LSTM网络中以预测能耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能耗预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short-Term Load Forecasting Based on a Hybrid Deep Learning Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深度信任网络（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期负荷预测在电力系统的规划和运行中起着至关重要的作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayesian Deep Learning Based Probabilistic Load Forecasting in Smart Grids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝叶斯深度学习的智能电网概率负荷预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于贝叶斯深度学习的新颖的多任务概率负荷预测框架，以量化不同客户群之间共享的不确定性，同时考虑它们之间的差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRUMS: Demand Response Management in a Smart City Using Deep Learning and SVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集来自智能家居（SH）的消费数据，并将其作为深度学习模型卷积神经网络（CNN）的输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +687,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -560,13 +728,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -627,7 +796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,26 +829,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,23 +864,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,11 +1039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1338,13 +1473,13 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C36">
         <v>2017</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
@@ -1352,13 +1487,13 @@
         <v>2017</v>
       </c>
       <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" t="s">
         <v>94</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>95</v>
-      </c>
-      <c r="I37" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
@@ -1366,13 +1501,13 @@
         <v>2018</v>
       </c>
       <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" t="s">
         <v>97</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>98</v>
-      </c>
-      <c r="I38" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
@@ -1380,13 +1515,13 @@
         <v>2018</v>
       </c>
       <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" t="s">
         <v>100</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>101</v>
-      </c>
-      <c r="I39" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
@@ -1394,13 +1529,13 @@
         <v>2019</v>
       </c>
       <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" t="s">
         <v>103</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>104</v>
-      </c>
-      <c r="I40" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
@@ -1408,13 +1543,13 @@
         <v>2019</v>
       </c>
       <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" t="s">
         <v>106</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>107</v>
-      </c>
-      <c r="I41" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
@@ -1422,13 +1557,13 @@
         <v>2017</v>
       </c>
       <c r="F42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" t="s">
         <v>109</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>110</v>
-      </c>
-      <c r="I42" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
@@ -1439,10 +1574,10 @@
         <v>77</v>
       </c>
       <c r="H43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" t="s">
         <v>112</v>
-      </c>
-      <c r="I43" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
@@ -1450,13 +1585,13 @@
         <v>2018</v>
       </c>
       <c r="F44" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" t="s">
         <v>114</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>115</v>
-      </c>
-      <c r="I44" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
@@ -1464,7 +1599,7 @@
         <v>2018</v>
       </c>
       <c r="F45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
@@ -1472,13 +1607,169 @@
         <v>2018</v>
       </c>
       <c r="F46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" t="s">
         <v>118</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>119</v>
       </c>
-      <c r="I46" t="s">
-        <v>120</v>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E47">
+        <v>2016</v>
+      </c>
+      <c r="F47" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <v>2017</v>
+      </c>
+      <c r="F48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" t="s">
+        <v>125</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <v>2019</v>
+      </c>
+      <c r="F49" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E50">
+        <v>2016</v>
+      </c>
+      <c r="F50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E51">
+        <v>2018</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E52">
+        <v>2018</v>
+      </c>
+      <c r="F52" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E53">
+        <v>2018</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+      <c r="H53" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E54">
+        <v>2019</v>
+      </c>
+      <c r="F54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>2018</v>
+      </c>
+      <c r="F55" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E56">
+        <v>2019</v>
+      </c>
+      <c r="F56" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" t="s">
+        <v>149</v>
+      </c>
+      <c r="I56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E57">
+        <v>2018</v>
+      </c>
+      <c r="F57" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E58">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1502,7 +1793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/能源文献/能源论文相关研究.xlsx
+++ b/能源文献/能源论文相关研究.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F772AC71-AB05-4C08-ADB7-264B0676E260}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="208">
   <si>
     <t>开始年限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,12 +661,232 @@
     <t>收集来自智能家居（SH）的消费数据，并将其作为深度学习模型卷积神经网络（CNN）的输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>IEEE Access上检索的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM energy consumption forecast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy consumption forecast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Consumption Load Forecasting Using a Level-Based Random Forest Classifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源负荷预测分类（低，平均，高）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Neuro-Fuzzy Based Approach for Energy Consumption and Profit Operation Forecasting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neuro-fuzzy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能耗预测和利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Consumption Forecasting Using Ensemble Learning Algorithms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑能耗短期预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成学习方法，随机森林、梯度增强回归树和Adaboost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究需求响应期间室内温度和能源消耗的动态行为。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning Models for Time Series Forecasting of Indoor Temperature and Energy Consumption in a Cold Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四种基于lstm的架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Experimental Study of Regression Techniques for the Residential Energy Consumption Forecast in the Brazilian Scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源消耗预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性回归、多层感知器和支持向量回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy consumption forecasting based on Elman neural networks with evolutive optimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共建筑能耗预测方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Elman神经网络的能耗预测方法，并利用遗传算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the Energy Consumption Forecasting of Data Centers Based on Weather Conditions: Remote Sensing and Machine Learning Approach.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据天气预测能耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forecasting Residential Energy Consumption: Single Household Perspective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭侧预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Comparison Between NARX Neural Networks and Symbolic Regression: An Application for Energy Consumption Forecasting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NARX 网络和 symbolic regerssion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共建筑能耗，主要是用回归来解决的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day-ahead forecasting approach for energy consumption of an office building using support vector machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公楼能耗日前预测方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色系统模型(NSGM(1,1))来预测CTEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A类-TPAMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forecasting the total energy consumption in China using a new-structure grey system model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国的能耗趋势预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China's energy consumption forecasting by GMDH based auto-regressive model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于GMDH的中国能源消费预测自回归模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>际建筑能耗预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy consumption forecasting using neuro-fuzzy inference systems: Thales TRT building case study.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Learning Approaches to Energy Consumption Forecasting in Households</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用电能耗预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMA模型、支持向量机和递归神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electrical Energy Consumption Forecast Using Support Vector Machines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持向量机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电网负荷预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptive Time Series Forecasting of Energy Consumption Using Optimized Cluster Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭用电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚类采用基于质心的K-means方法，k -means++质心初始化，的预测方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forecasting energy consumption with the data reliability estimatimation in the management of hybrid energy system using fuzzy decision trees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊决策树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大楼用电量的预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy consumption forecasting based on Hybrid Neural Fuzzy Inference System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于混合神经模糊推理系统的能耗预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +922,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -728,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -736,6 +964,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -796,7 +1025,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,9 +1058,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,6 +1110,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1039,17 +1302,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="29.375" customWidth="1"/>
     <col min="7" max="7" width="34.75" customWidth="1"/>
@@ -1057,6 +1321,11 @@
     <col min="9" max="9" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
@@ -1460,7 +1729,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E33">
         <v>2016</v>
       </c>
@@ -1471,7 +1740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>120</v>
       </c>
@@ -1482,7 +1751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E37">
         <v>2017</v>
       </c>
@@ -1496,7 +1765,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E38">
         <v>2018</v>
       </c>
@@ -1510,7 +1779,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E39">
         <v>2018</v>
       </c>
@@ -1524,7 +1793,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E40">
         <v>2019</v>
       </c>
@@ -1538,21 +1807,28 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E41">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="5">
         <v>2019</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E42">
         <v>2017</v>
       </c>
@@ -1566,7 +1842,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E43">
         <v>2017</v>
       </c>
@@ -1580,7 +1856,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E44">
         <v>2018</v>
       </c>
@@ -1594,7 +1870,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E45">
         <v>2018</v>
       </c>
@@ -1602,7 +1878,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E46">
         <v>2018</v>
       </c>
@@ -1616,7 +1892,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E47">
         <v>2016</v>
       </c>
@@ -1630,7 +1906,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E48">
         <v>2017</v>
       </c>
@@ -1644,7 +1920,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E49">
         <v>2019</v>
       </c>
@@ -1658,7 +1934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E50">
         <v>2016</v>
       </c>
@@ -1672,7 +1948,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E51">
         <v>2018</v>
       </c>
@@ -1686,7 +1962,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E52">
         <v>2018</v>
       </c>
@@ -1700,7 +1976,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E53">
         <v>2018</v>
       </c>
@@ -1714,7 +1990,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E54">
         <v>2019</v>
       </c>
@@ -1728,7 +2004,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="5:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E55">
         <v>2018</v>
       </c>
@@ -1742,7 +2018,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E56">
         <v>2019</v>
       </c>
@@ -1756,7 +2032,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E57">
         <v>2018</v>
       </c>
@@ -1767,9 +2043,279 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E58">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E68">
         <v>2019</v>
+      </c>
+      <c r="F68" t="s">
+        <v>157</v>
+      </c>
+      <c r="H68" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E69">
+        <v>2019</v>
+      </c>
+      <c r="F69" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69" t="s">
+        <v>162</v>
+      </c>
+      <c r="I69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E70">
+        <v>2019</v>
+      </c>
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+      <c r="H70" t="s">
+        <v>144</v>
+      </c>
+      <c r="I70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E71">
+        <v>2019</v>
+      </c>
+      <c r="F71" t="s">
+        <v>163</v>
+      </c>
+      <c r="H71" t="s">
+        <v>164</v>
+      </c>
+      <c r="I71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E72">
+        <v>2019</v>
+      </c>
+      <c r="F72" t="s">
+        <v>167</v>
+      </c>
+      <c r="H72" t="s">
+        <v>166</v>
+      </c>
+      <c r="I72" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E73">
+        <v>2019</v>
+      </c>
+      <c r="F73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H73" t="s">
+        <v>171</v>
+      </c>
+      <c r="I73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E74">
+        <v>2018</v>
+      </c>
+      <c r="F74" t="s">
+        <v>173</v>
+      </c>
+      <c r="H74" t="s">
+        <v>174</v>
+      </c>
+      <c r="I74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E75">
+        <v>2018</v>
+      </c>
+      <c r="F75" t="s">
+        <v>176</v>
+      </c>
+      <c r="H75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <v>2018</v>
+      </c>
+      <c r="F76" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" t="s">
+        <v>179</v>
+      </c>
+      <c r="I76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F77" t="s">
+        <v>181</v>
+      </c>
+      <c r="H77" t="s">
+        <v>183</v>
+      </c>
+      <c r="I77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E78">
+        <v>2018</v>
+      </c>
+      <c r="F78" t="s">
+        <v>184</v>
+      </c>
+      <c r="H78" t="s">
+        <v>185</v>
+      </c>
+      <c r="I78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E79">
+        <v>2017</v>
+      </c>
+      <c r="F79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E80">
+        <v>2017</v>
+      </c>
+      <c r="F80" t="s">
+        <v>190</v>
+      </c>
+      <c r="H80" t="s">
+        <v>189</v>
+      </c>
+      <c r="I80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E81">
+        <v>2017</v>
+      </c>
+      <c r="F81" t="s">
+        <v>193</v>
+      </c>
+      <c r="H81" t="s">
+        <v>192</v>
+      </c>
+      <c r="I81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E82">
+        <v>2017</v>
+      </c>
+      <c r="F82" t="s">
+        <v>194</v>
+      </c>
+      <c r="H82" t="s">
+        <v>195</v>
+      </c>
+      <c r="I82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E83">
+        <v>2017</v>
+      </c>
+      <c r="F83" t="s">
+        <v>197</v>
+      </c>
+      <c r="H83" t="s">
+        <v>199</v>
+      </c>
+      <c r="I83" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E84">
+        <v>2016</v>
+      </c>
+      <c r="F84" t="s">
+        <v>200</v>
+      </c>
+      <c r="H84" t="s">
+        <v>201</v>
+      </c>
+      <c r="I84" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E85">
+        <v>2016</v>
+      </c>
+      <c r="F85" t="s">
+        <v>203</v>
+      </c>
+      <c r="I85" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E86">
+        <v>2016</v>
+      </c>
+      <c r="F86" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" t="s">
+        <v>205</v>
+      </c>
+      <c r="I86" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +2326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1793,7 +2339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
